--- a/sorare/sorare_limited.xlsx
+++ b/sorare/sorare_limited.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">ALEX LEN</t>
   </si>
   <si>
-    <t xml:space="preserve">A.J, GREEN</t>
+    <t xml:space="preserve">A.J GREEN</t>
   </si>
   <si>
     <t xml:space="preserve">ALONDES WILLIAMS</t>
@@ -169,7 +169,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -196,7 +196,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -204,10 +204,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -218,7 +218,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -226,10 +226,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -237,10 +237,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -248,10 +248,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -259,7 +259,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0</v>
@@ -270,10 +270,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,7 +284,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -292,7 +292,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1</v>
